--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,81 +46,78 @@
     <t>negative</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>black</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,13 +130,16 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>powerful</t>
@@ -148,100 +148,88 @@
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>live</t>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>’</t>
   </si>
   <si>
     <t>watched</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -602,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +601,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -742,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -771,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,16 +880,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.72</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,16 +1030,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.7017543859649122</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,16 +1080,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,31 +1127,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.6153846153846154</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L12">
         <v>16</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.5862068965517241</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L13">
+        <v>19</v>
+      </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>17</v>
-      </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7647058823529411</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.4782608695652174</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.4583333333333333</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,49 +1359,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7391304347826086</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>17</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="L17">
-        <v>14</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.723404255319149</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.4166666666666667</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,37 +1459,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.65</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>13</v>
       </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.360655737704918</v>
+        <v>0.3087431693989071</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.3389830508474576</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6159420289855072</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.3214285714285715</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5882352941176471</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.2996357012750455</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L22">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>769</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5769230769230769</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.2962962962962963</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.2352941176470588</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,13 +1759,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5357142857142857</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1789,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.2307692307692308</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,13 +1809,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1839,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L26">
         <v>10</v>
@@ -1863,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,13 +1859,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1889,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.1956521739130435</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,13 +1909,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4358974358974359</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1939,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.1894736842105263</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,13 +1959,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4285714285714285</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1989,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.1851851851851852</v>
+        <v>0.1015873015873016</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2013,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2021,87 +2009,63 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2307692307692308</v>
+        <v>0.06440677966101695</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>0.09540636042402827</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K30">
-        <v>0.1549295774647887</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.06164383561643835</v>
-      </c>
-      <c r="C31">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>0.28</v>
-      </c>
-      <c r="F31">
-        <v>0.72</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>274</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K31">
-        <v>0.136986301369863</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2113,73 +2077,73 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>63</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.1092592592592593</v>
+        <v>0.08529411764705883</v>
       </c>
       <c r="L32">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>481</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.09593495934959349</v>
+        <v>0.08459214501510574</v>
       </c>
       <c r="L33">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>556</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.09186746987951808</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2191,47 +2155,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>603</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.08156028368794327</v>
+        <v>0.06455331412103746</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>259</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.07936507936507936</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2243,137 +2207,59 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>290</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.07624633431085044</v>
+        <v>0.04364569961489088</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>315</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.072992700729927</v>
+        <v>0.0313588850174216</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M38">
         <v>10</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39">
-        <v>0.05824682814302191</v>
-      </c>
-      <c r="L39">
-        <v>101</v>
-      </c>
-      <c r="M39">
-        <v>103</v>
-      </c>
-      <c r="N39">
-        <v>0.98</v>
-      </c>
-      <c r="O39">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="L40">
-        <v>13</v>
-      </c>
-      <c r="M40">
-        <v>13</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41">
-        <v>0.03457106274007683</v>
-      </c>
-      <c r="L41">
-        <v>27</v>
-      </c>
-      <c r="M41">
-        <v>27</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>754</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
